--- a/documentatie/Product backlog overview & Sprint backlogs(1).xlsx
+++ b/documentatie/Product backlog overview & Sprint backlogs(1).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -232,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -285,6 +285,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -306,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -626,11 +632,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -673,10 +744,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -684,12 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -701,14 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -857,6 +911,77 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1140,15 +1265,15 @@
   <dimension ref="A1:N1002"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="5" style="17" customWidth="1"/>
     <col min="2" max="2" width="88.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
@@ -1158,10 +1283,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="8"/>
@@ -1231,7 +1356,7 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1255,7 +1380,7 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1279,7 +1404,7 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1300,7 +1425,7 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1324,7 +1449,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1335,7 +1460,7 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="2"/>
@@ -1348,7 +1473,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1358,7 +1483,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="8"/>
@@ -1372,7 +1497,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1382,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="12"/>
@@ -1395,8 +1520,8 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -1407,7 +1532,7 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="2"/>
@@ -1420,7 +1545,7 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>12</v>
       </c>
       <c r="B12" t="s">
@@ -1431,7 +1556,7 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="2"/>
@@ -1444,7 +1569,7 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1454,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1470,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1486,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="32"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:14" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>16</v>
       </c>
       <c r="B16" t="s">
@@ -1502,7 +1627,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="8"/>
@@ -1516,7 +1641,7 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1525,8 +1650,8 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="8"/>
@@ -1540,7 +1665,7 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1549,24 +1674,24 @@
       <c r="C18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>19</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="8"/>
@@ -1580,17 +1705,17 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>20</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="8"/>
@@ -1607,15 +1732,15 @@
       <c r="A21" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="2"/>
@@ -1629,8 +1754,8 @@
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1645,8 +1770,8 @@
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1661,8 +1786,8 @@
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1677,8 +1802,8 @@
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1693,8 +1818,8 @@
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1710,7 +1835,7 @@
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="17"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -16371,22 +16496,22 @@
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="18" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -16409,22 +16534,22 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="42" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
@@ -16449,22 +16574,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72">
+      <c r="A3" s="65">
         <v>1</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="67">
         <v>12</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="43" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2"/>
@@ -16489,22 +16614,22 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="51">
         <v>6</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="59" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="2"/>
@@ -16529,22 +16654,22 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63">
+      <c r="A5" s="56">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="51">
         <v>2</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="59" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="2"/>
@@ -16569,22 +16694,22 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64">
+      <c r="A6" s="57">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="53">
         <v>4</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="60" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="2"/>
@@ -16609,22 +16734,22 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+      <c r="A7" s="58">
         <v>5</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="62">
         <v>8</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="64" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="2"/>
@@ -16742,11 +16867,11 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -16770,11 +16895,11 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -16798,11 +16923,11 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -16826,11 +16951,11 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -16854,11 +16979,11 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -16882,11 +17007,11 @@
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -16910,7 +17035,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="25"/>
+      <c r="B18" s="21"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -39545,202 +39670,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="39">
+      <c r="A3" s="32">
         <v>7</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="34">
         <v>8</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37">
+      <c r="A4" s="30">
         <v>8</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="27">
         <v>80</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="9" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="31">
         <v>13</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="46">
         <v>20</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="48" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
+      <c r="A6" s="30">
         <v>14</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="27">
         <v>20</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
+      <c r="A7" s="30">
         <v>15</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="27">
         <v>12</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="44" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
+      <c r="A8" s="30">
         <v>16</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="27">
         <v>40</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="44" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="37">
+      <c r="A9" s="30">
         <v>17</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="27">
         <v>20</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="46">
         <v>20</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="48" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -39755,111 +39880,122 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="99" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="90">
+        <v>6</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="94"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="86">
         <v>11</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="27" t="s">
+      <c r="B4" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="78"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="86">
         <v>12</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="28" t="s">
+      <c r="B5" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>13</v>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="78"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="86">
+        <v>18</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>8</v>
+      <c r="B6" s="84" t="s">
+        <v>57</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>14</v>
+      <c r="C6" s="73" t="s">
+        <v>39</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="22" t="s">
-        <v>8</v>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="79"/>
+    </row>
+    <row r="7" spans="1:6" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87">
+        <v>21</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>15</v>
+      <c r="B7" s="85" t="s">
+        <v>62</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="22" t="s">
-        <v>8</v>
+      <c r="C7" s="80" t="s">
+        <v>41</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="22"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>